--- a/output/est-removals_ha.xlsx
+++ b/output/est-removals_ha.xlsx
@@ -404,25 +404,25 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>-213268.5376194559</v>
+        <v>-8776.556190551717</v>
       </c>
       <c r="C2">
-        <v>-2.948304269236008</v>
+        <v>-0.1213304052000625</v>
       </c>
       <c r="D2">
-        <v>-0.8687304872722668</v>
+        <v>-0.05811813622896476</v>
       </c>
       <c r="E2">
-        <v>19.79069378461338</v>
+        <v>0.5591349224160045</v>
       </c>
       <c r="F2">
-        <v>0.07248608977548943</v>
+        <v>0.002047907194358602</v>
       </c>
       <c r="G2">
-        <v>-451.6157052200397</v>
+        <v>-17.43698830456139</v>
       </c>
       <c r="H2">
-        <v>123.0024368178546</v>
+        <v>5.27910430832494</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>902143.7338832254</v>
+        <v>26603.85365656968</v>
       </c>
       <c r="C3">
-        <v>12.47157340581765</v>
+        <v>0.3677816530713571</v>
       </c>
       <c r="D3">
-        <v>3.734869253953466</v>
+        <v>0.2329822564917849</v>
       </c>
       <c r="E3">
-        <v>45.85392967195418</v>
+        <v>0.7836167808173795</v>
       </c>
       <c r="F3">
-        <v>0.1679462124437686</v>
+        <v>0.002870102329008282</v>
       </c>
       <c r="G3">
-        <v>-33.86667436600248</v>
+        <v>-1.335567751792572</v>
       </c>
       <c r="H3">
-        <v>750.9478408944721</v>
+        <v>20.54751128961059</v>
       </c>
     </row>
     <row r="4">
@@ -456,25 +456,25 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>249119.9768127838</v>
+        <v>6112.787887770839</v>
       </c>
       <c r="C4">
-        <v>3.443928013890508</v>
+        <v>0.08450547290105673</v>
       </c>
       <c r="D4">
-        <v>0.7633154618108964</v>
+        <v>0.04498358835041801</v>
       </c>
       <c r="E4">
-        <v>17.65404861082065</v>
+        <v>0.3386134105687479</v>
       </c>
       <c r="F4">
-        <v>0.06466033815851893</v>
+        <v>0.001240217364019531</v>
       </c>
       <c r="G4">
-        <v>-56.35196586028623</v>
+        <v>-2.339613757856612</v>
       </c>
       <c r="H4">
-        <v>278.8583841200524</v>
+        <v>8.287453481006713</v>
       </c>
     </row>
     <row r="5">
@@ -482,25 +482,25 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>249119.9768127838</v>
+        <v>6112.787887770839</v>
       </c>
       <c r="C5">
-        <v>3.443928013890508</v>
+        <v>0.08450547290105673</v>
       </c>
       <c r="D5">
-        <v>0.7633154618108964</v>
+        <v>0.04498358835041801</v>
       </c>
       <c r="E5">
-        <v>17.65404861082065</v>
+        <v>0.3386134105687479</v>
       </c>
       <c r="F5">
-        <v>0.06466033815851893</v>
+        <v>0.001240217364019531</v>
       </c>
       <c r="G5">
-        <v>-56.35196586028623</v>
+        <v>-2.339613757856612</v>
       </c>
       <c r="H5">
-        <v>278.8583841200524</v>
+        <v>8.287453481006713</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-removals_ha.xlsx
+++ b/output/est-removals_ha.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +398,47 @@
           <t>Max</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Skw</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Krt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>-8776.556190551717</v>
+        <v>-8776.55619055173</v>
       </c>
       <c r="C2">
-        <v>-0.1213304052000625</v>
+        <v>-0.1213304052000626</v>
       </c>
       <c r="D2">
         <v>-0.05811813622896476</v>
       </c>
       <c r="E2">
-        <v>0.5591349224160045</v>
+        <v>0.5591349224160053</v>
       </c>
       <c r="F2">
-        <v>0.002047907194358602</v>
+        <v>0.002047907194358605</v>
       </c>
       <c r="G2">
         <v>-17.43698830456139</v>
       </c>
       <c r="H2">
         <v>5.27910430832494</v>
+      </c>
+      <c r="I2">
+        <v>-11.06024220314769</v>
+      </c>
+      <c r="J2">
+        <v>333.3745345838664</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +446,31 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>26603.85365656968</v>
+        <v>26603.85365656971</v>
       </c>
       <c r="C3">
-        <v>0.3677816530713571</v>
+        <v>0.3677816530713574</v>
       </c>
       <c r="D3">
         <v>0.2329822564917849</v>
       </c>
       <c r="E3">
-        <v>0.7836167808173795</v>
+        <v>0.7836167808173811</v>
       </c>
       <c r="F3">
-        <v>0.002870102329008282</v>
+        <v>0.002870102329008288</v>
       </c>
       <c r="G3">
         <v>-1.335567751792572</v>
       </c>
       <c r="H3">
         <v>20.54751128961059</v>
+      </c>
+      <c r="I3">
+        <v>13.72817666259096</v>
+      </c>
+      <c r="J3">
+        <v>290.0106449129696</v>
       </c>
     </row>
     <row r="4">
@@ -456,25 +478,31 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>6112.787887770839</v>
+        <v>6112.787887770845</v>
       </c>
       <c r="C4">
-        <v>0.08450547290105673</v>
+        <v>0.08450547290105681</v>
       </c>
       <c r="D4">
         <v>0.04498358835041801</v>
       </c>
       <c r="E4">
-        <v>0.3386134105687479</v>
+        <v>0.3386134105687482</v>
       </c>
       <c r="F4">
-        <v>0.001240217364019531</v>
+        <v>0.001240217364019532</v>
       </c>
       <c r="G4">
         <v>-2.339613757856612</v>
       </c>
       <c r="H4">
         <v>8.287453481006713</v>
+      </c>
+      <c r="I4">
+        <v>13.20676345533915</v>
+      </c>
+      <c r="J4">
+        <v>284.3135411498174</v>
       </c>
     </row>
     <row r="5">
@@ -482,25 +510,31 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>6112.787887770839</v>
+        <v>6112.787887770845</v>
       </c>
       <c r="C5">
-        <v>0.08450547290105673</v>
+        <v>0.08450547290105681</v>
       </c>
       <c r="D5">
         <v>0.04498358835041801</v>
       </c>
       <c r="E5">
-        <v>0.3386134105687479</v>
+        <v>0.3386134105687482</v>
       </c>
       <c r="F5">
-        <v>0.001240217364019531</v>
+        <v>0.001240217364019532</v>
       </c>
       <c r="G5">
         <v>-2.339613757856612</v>
       </c>
       <c r="H5">
         <v>8.287453481006713</v>
+      </c>
+      <c r="I5">
+        <v>13.20676345533915</v>
+      </c>
+      <c r="J5">
+        <v>284.3135411498174</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-removals_ha.xlsx
+++ b/output/est-removals_ha.xlsx
@@ -414,19 +414,19 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>-8776.55619055173</v>
+        <v>-8776.556190551717</v>
       </c>
       <c r="C2">
-        <v>-0.1213304052000626</v>
+        <v>-0.1213304052000625</v>
       </c>
       <c r="D2">
         <v>-0.05811813622896476</v>
       </c>
       <c r="E2">
-        <v>0.5591349224160053</v>
+        <v>0.5591349224160045</v>
       </c>
       <c r="F2">
-        <v>0.002047907194358605</v>
+        <v>0.002047907194358602</v>
       </c>
       <c r="G2">
         <v>-17.43698830456139</v>
@@ -435,10 +435,10 @@
         <v>5.27910430832494</v>
       </c>
       <c r="I2">
-        <v>-11.06024220314769</v>
+        <v>-11.06024220314772</v>
       </c>
       <c r="J2">
-        <v>333.3745345838664</v>
+        <v>333.3745345838683</v>
       </c>
     </row>
     <row r="3">
@@ -446,19 +446,19 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>26603.85365656971</v>
+        <v>26603.85365656968</v>
       </c>
       <c r="C3">
-        <v>0.3677816530713574</v>
+        <v>0.3677816530713571</v>
       </c>
       <c r="D3">
         <v>0.2329822564917849</v>
       </c>
       <c r="E3">
-        <v>0.7836167808173811</v>
+        <v>0.7836167808173795</v>
       </c>
       <c r="F3">
-        <v>0.002870102329008288</v>
+        <v>0.002870102329008282</v>
       </c>
       <c r="G3">
         <v>-1.335567751792572</v>
@@ -467,10 +467,10 @@
         <v>20.54751128961059</v>
       </c>
       <c r="I3">
-        <v>13.72817666259096</v>
+        <v>13.72817666259101</v>
       </c>
       <c r="J3">
-        <v>290.0106449129696</v>
+        <v>290.0106449129717</v>
       </c>
     </row>
     <row r="4">
@@ -478,19 +478,19 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>6112.787887770845</v>
+        <v>6112.787887770839</v>
       </c>
       <c r="C4">
-        <v>0.08450547290105681</v>
+        <v>0.08450547290105673</v>
       </c>
       <c r="D4">
         <v>0.04498358835041801</v>
       </c>
       <c r="E4">
-        <v>0.3386134105687482</v>
+        <v>0.3386134105687479</v>
       </c>
       <c r="F4">
-        <v>0.001240217364019532</v>
+        <v>0.001240217364019531</v>
       </c>
       <c r="G4">
         <v>-2.339613757856612</v>
@@ -499,10 +499,10 @@
         <v>8.287453481006713</v>
       </c>
       <c r="I4">
-        <v>13.20676345533915</v>
+        <v>13.20676345533917</v>
       </c>
       <c r="J4">
-        <v>284.3135411498174</v>
+        <v>284.3135411498184</v>
       </c>
     </row>
     <row r="5">
@@ -510,19 +510,19 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>6112.787887770845</v>
+        <v>6112.787887770839</v>
       </c>
       <c r="C5">
-        <v>0.08450547290105681</v>
+        <v>0.08450547290105673</v>
       </c>
       <c r="D5">
         <v>0.04498358835041801</v>
       </c>
       <c r="E5">
-        <v>0.3386134105687482</v>
+        <v>0.3386134105687479</v>
       </c>
       <c r="F5">
-        <v>0.001240217364019532</v>
+        <v>0.001240217364019531</v>
       </c>
       <c r="G5">
         <v>-2.339613757856612</v>
@@ -531,10 +531,10 @@
         <v>8.287453481006713</v>
       </c>
       <c r="I5">
-        <v>13.20676345533915</v>
+        <v>13.20676345533917</v>
       </c>
       <c r="J5">
-        <v>284.3135411498174</v>
+        <v>284.3135411498184</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-removals_ha.xlsx
+++ b/output/est-removals_ha.xlsx
@@ -414,19 +414,19 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>-8776.556190551717</v>
+        <v>-8776.55619055173</v>
       </c>
       <c r="C2">
-        <v>-0.1213304052000625</v>
+        <v>-0.1213304052000626</v>
       </c>
       <c r="D2">
         <v>-0.05811813622896476</v>
       </c>
       <c r="E2">
-        <v>0.5591349224160045</v>
+        <v>0.5591349224160053</v>
       </c>
       <c r="F2">
-        <v>0.002047907194358602</v>
+        <v>0.002047907194358605</v>
       </c>
       <c r="G2">
         <v>-17.43698830456139</v>
@@ -435,10 +435,10 @@
         <v>5.27910430832494</v>
       </c>
       <c r="I2">
-        <v>-11.06024220314772</v>
+        <v>-11.06024220314769</v>
       </c>
       <c r="J2">
-        <v>333.3745345838683</v>
+        <v>333.3745345838664</v>
       </c>
     </row>
     <row r="3">
@@ -446,19 +446,19 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>26603.85365656968</v>
+        <v>26603.85365656971</v>
       </c>
       <c r="C3">
-        <v>0.3677816530713571</v>
+        <v>0.3677816530713574</v>
       </c>
       <c r="D3">
         <v>0.2329822564917849</v>
       </c>
       <c r="E3">
-        <v>0.7836167808173795</v>
+        <v>0.7836167808173811</v>
       </c>
       <c r="F3">
-        <v>0.002870102329008282</v>
+        <v>0.002870102329008288</v>
       </c>
       <c r="G3">
         <v>-1.335567751792572</v>
@@ -467,10 +467,10 @@
         <v>20.54751128961059</v>
       </c>
       <c r="I3">
-        <v>13.72817666259101</v>
+        <v>13.72817666259096</v>
       </c>
       <c r="J3">
-        <v>290.0106449129717</v>
+        <v>290.0106449129696</v>
       </c>
     </row>
     <row r="4">
@@ -478,19 +478,19 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>6112.787887770839</v>
+        <v>6112.787887770845</v>
       </c>
       <c r="C4">
-        <v>0.08450547290105673</v>
+        <v>0.08450547290105681</v>
       </c>
       <c r="D4">
         <v>0.04498358835041801</v>
       </c>
       <c r="E4">
-        <v>0.3386134105687479</v>
+        <v>0.3386134105687482</v>
       </c>
       <c r="F4">
-        <v>0.001240217364019531</v>
+        <v>0.001240217364019532</v>
       </c>
       <c r="G4">
         <v>-2.339613757856612</v>
@@ -499,10 +499,10 @@
         <v>8.287453481006713</v>
       </c>
       <c r="I4">
-        <v>13.20676345533917</v>
+        <v>13.20676345533915</v>
       </c>
       <c r="J4">
-        <v>284.3135411498184</v>
+        <v>284.3135411498174</v>
       </c>
     </row>
     <row r="5">
@@ -510,19 +510,19 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>6112.787887770839</v>
+        <v>6112.787887770845</v>
       </c>
       <c r="C5">
-        <v>0.08450547290105673</v>
+        <v>0.08450547290105681</v>
       </c>
       <c r="D5">
         <v>0.04498358835041801</v>
       </c>
       <c r="E5">
-        <v>0.3386134105687479</v>
+        <v>0.3386134105687482</v>
       </c>
       <c r="F5">
-        <v>0.001240217364019531</v>
+        <v>0.001240217364019532</v>
       </c>
       <c r="G5">
         <v>-2.339613757856612</v>
@@ -531,10 +531,10 @@
         <v>8.287453481006713</v>
       </c>
       <c r="I5">
-        <v>13.20676345533917</v>
+        <v>13.20676345533915</v>
       </c>
       <c r="J5">
-        <v>284.3135411498184</v>
+        <v>284.3135411498174</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-removals_ha.xlsx
+++ b/output/est-removals_ha.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>-8776.55619055173</v>
+        <v>-8777.238211583552</v>
       </c>
       <c r="C2">
-        <v>-0.1213304052000626</v>
+        <v>-0.1213599664230899</v>
       </c>
       <c r="D2">
-        <v>-0.05811813622896476</v>
+        <v>-0.05813757818251922</v>
       </c>
       <c r="E2">
-        <v>0.5591349224160053</v>
+        <v>0.5591765967318461</v>
       </c>
       <c r="F2">
-        <v>0.002047907194358605</v>
+        <v>0.002048224699132716</v>
       </c>
       <c r="G2">
         <v>-17.43698830456139</v>
@@ -435,10 +435,10 @@
         <v>5.27910430832494</v>
       </c>
       <c r="I2">
-        <v>-11.06024220314769</v>
+        <v>-11.05945104145467</v>
       </c>
       <c r="J2">
-        <v>333.3745345838664</v>
+        <v>333.3277279854925</v>
       </c>
     </row>
     <row r="3">
@@ -446,19 +446,19 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>26603.85365656971</v>
+        <v>26602.04145045832</v>
       </c>
       <c r="C3">
-        <v>0.3677816530713574</v>
+        <v>0.367817618639156</v>
       </c>
       <c r="D3">
-        <v>0.2329822564917849</v>
+        <v>0.2330380686948484</v>
       </c>
       <c r="E3">
-        <v>0.7836167808173811</v>
+        <v>0.7836768129742027</v>
       </c>
       <c r="F3">
-        <v>0.002870102329008288</v>
+        <v>0.002870553263231655</v>
       </c>
       <c r="G3">
         <v>-1.335567751792572</v>
@@ -467,10 +467,10 @@
         <v>20.54751128961059</v>
       </c>
       <c r="I3">
-        <v>13.72817666259096</v>
+        <v>13.7271652150901</v>
       </c>
       <c r="J3">
-        <v>290.0106449129696</v>
+        <v>289.9669580473217</v>
       </c>
     </row>
     <row r="4">
@@ -478,19 +478,19 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>6112.787887770845</v>
+        <v>6110.881349587844</v>
       </c>
       <c r="C4">
-        <v>0.08450547290105681</v>
+        <v>0.08449313297920252</v>
       </c>
       <c r="D4">
-        <v>0.04498358835041801</v>
+        <v>0.04498254745521971</v>
       </c>
       <c r="E4">
-        <v>0.3386134105687482</v>
+        <v>0.3386401458671497</v>
       </c>
       <c r="F4">
-        <v>0.001240217364019532</v>
+        <v>0.001240415129919366</v>
       </c>
       <c r="G4">
         <v>-2.339613757856612</v>
@@ -499,42 +499,10 @@
         <v>8.287453481006713</v>
       </c>
       <c r="I4">
-        <v>13.20676345533915</v>
+        <v>13.20593412295783</v>
       </c>
       <c r="J4">
-        <v>284.3135411498174</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5">
-        <v>6112.787887770845</v>
-      </c>
-      <c r="C5">
-        <v>0.08450547290105681</v>
-      </c>
-      <c r="D5">
-        <v>0.04498358835041801</v>
-      </c>
-      <c r="E5">
-        <v>0.3386134105687482</v>
-      </c>
-      <c r="F5">
-        <v>0.001240217364019532</v>
-      </c>
-      <c r="G5">
-        <v>-2.339613757856612</v>
-      </c>
-      <c r="H5">
-        <v>8.287453481006713</v>
-      </c>
-      <c r="I5">
-        <v>13.20676345533915</v>
-      </c>
-      <c r="J5">
-        <v>284.3135411498174</v>
+        <v>284.2724046164785</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-removals_ha.xlsx
+++ b/output/est-removals_ha.xlsx
@@ -414,31 +414,31 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>-8777.238211583552</v>
+        <v>5353.332271964373</v>
       </c>
       <c r="C2">
-        <v>-0.1213599664230899</v>
+        <v>0.2011321112099629</v>
       </c>
       <c r="D2">
-        <v>-0.05813757818251922</v>
+        <v>0.1232157853975029</v>
       </c>
       <c r="E2">
-        <v>0.5591765967318461</v>
+        <v>0.354523859628911</v>
       </c>
       <c r="F2">
-        <v>0.002048224699132716</v>
+        <v>0.002153738030818717</v>
       </c>
       <c r="G2">
-        <v>-17.43698830456139</v>
+        <v>-0</v>
       </c>
       <c r="H2">
         <v>5.27910430832494</v>
       </c>
       <c r="I2">
-        <v>-11.05945104145467</v>
+        <v>7.871819021107108</v>
       </c>
       <c r="J2">
-        <v>333.3277279854925</v>
+        <v>85.74701605258493</v>
       </c>
     </row>
     <row r="3">
@@ -446,31 +446,31 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>26602.04145045832</v>
+        <v>27687.48800413157</v>
       </c>
       <c r="C3">
-        <v>0.367817618639156</v>
+        <v>0.439483936573517</v>
       </c>
       <c r="D3">
-        <v>0.2330380686948484</v>
+        <v>0.2884945493498523</v>
       </c>
       <c r="E3">
-        <v>0.7836768129742027</v>
+        <v>0.8131875277778049</v>
       </c>
       <c r="F3">
-        <v>0.002870553263231655</v>
+        <v>0.003190958764847861</v>
       </c>
       <c r="G3">
-        <v>-1.335567751792572</v>
+        <v>-0</v>
       </c>
       <c r="H3">
         <v>20.54751128961059</v>
       </c>
       <c r="I3">
-        <v>13.7271652150901</v>
+        <v>13.88576153367213</v>
       </c>
       <c r="J3">
-        <v>289.9669580473217</v>
+        <v>282.1142438711866</v>
       </c>
     </row>
     <row r="4">
@@ -478,31 +478,31 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>6110.881349587844</v>
+        <v>8066.396757711413</v>
       </c>
       <c r="C4">
-        <v>0.08449313297920252</v>
+        <v>0.1599333166331869</v>
       </c>
       <c r="D4">
-        <v>0.04498254745521971</v>
+        <v>0.08873628585163773</v>
       </c>
       <c r="E4">
-        <v>0.3386401458671497</v>
+        <v>0.3704295059340151</v>
       </c>
       <c r="F4">
-        <v>0.001240415129919366</v>
+        <v>0.001635486222070736</v>
       </c>
       <c r="G4">
-        <v>-2.339613757856612</v>
+        <v>-0</v>
       </c>
       <c r="H4">
         <v>8.287453481006713</v>
       </c>
       <c r="I4">
-        <v>13.20593412295783</v>
+        <v>14.13739385690647</v>
       </c>
       <c r="J4">
-        <v>284.2724046164785</v>
+        <v>271.8226083234179</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-removals_ha.xlsx
+++ b/output/est-removals_ha.xlsx
@@ -414,19 +414,19 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>5353.332271964373</v>
+        <v>5354.014292996195</v>
       </c>
       <c r="C2">
-        <v>0.2011321112099629</v>
+        <v>0.2010670832580815</v>
       </c>
       <c r="D2">
-        <v>0.1232157853975029</v>
+        <v>0.1231117174719596</v>
       </c>
       <c r="E2">
-        <v>0.354523859628911</v>
+        <v>0.3544571949156175</v>
       </c>
       <c r="F2">
-        <v>0.002153738030818717</v>
+        <v>0.002152856376872265</v>
       </c>
       <c r="G2">
         <v>-0</v>
@@ -435,10 +435,10 @@
         <v>5.27910430832494</v>
       </c>
       <c r="I2">
-        <v>7.871819021107108</v>
+        <v>7.873231489039227</v>
       </c>
       <c r="J2">
-        <v>85.74701605258493</v>
+        <v>85.77955560453839</v>
       </c>
     </row>
     <row r="3">
@@ -446,19 +446,19 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>27687.48800413157</v>
+        <v>27689.30021024294</v>
       </c>
       <c r="C3">
-        <v>0.439483936573517</v>
+        <v>0.4394290009877951</v>
       </c>
       <c r="D3">
-        <v>0.2884945493498523</v>
+        <v>0.2884607679308238</v>
       </c>
       <c r="E3">
-        <v>0.8131875277778049</v>
+        <v>0.8131198341586141</v>
       </c>
       <c r="F3">
-        <v>0.003190958764847861</v>
+        <v>0.003190398395538886</v>
       </c>
       <c r="G3">
         <v>-0</v>
@@ -467,10 +467,10 @@
         <v>20.54751128961059</v>
       </c>
       <c r="I3">
-        <v>13.88576153367213</v>
+        <v>13.88677886030938</v>
       </c>
       <c r="J3">
-        <v>282.1142438711866</v>
+        <v>282.1586355961422</v>
       </c>
     </row>
     <row r="4">
@@ -478,19 +478,19 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>8066.396757711413</v>
+        <v>8068.303295894408</v>
       </c>
       <c r="C4">
-        <v>0.1599333166331869</v>
+        <v>0.1599330656496671</v>
       </c>
       <c r="D4">
-        <v>0.08873628585163773</v>
+        <v>0.08882114317932516</v>
       </c>
       <c r="E4">
-        <v>0.3704295059340151</v>
+        <v>0.3703854460058974</v>
       </c>
       <c r="F4">
-        <v>0.001635486222070736</v>
+        <v>0.001635100464097874</v>
       </c>
       <c r="G4">
         <v>-0</v>
@@ -499,10 +499,10 @@
         <v>8.287453481006713</v>
       </c>
       <c r="I4">
-        <v>14.13739385690647</v>
+        <v>14.1390774706555</v>
       </c>
       <c r="J4">
-        <v>271.8226083234179</v>
+        <v>271.8880264411465</v>
       </c>
     </row>
   </sheetData>
